--- a/CashFlow/AEE_cashflow.xlsx
+++ b/CashFlow/AEE_cashflow.xlsx
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>2063000000.0</v>
+        <v>-25000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>2036000000.0</v>
+        <v>-67000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1425000000.0</v>
+        <v>-79000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>880000000.0</v>
+        <v>-68000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>490000000.0</v>
+        <v>-10000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>39000000.0</v>
@@ -866,19 +866,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>40000000.0</v>
+        <v>2758000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>12000000.0</v>
+        <v>2674000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>44000000.0</v>
+        <v>2069000000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>79000000.0</v>
+        <v>1516000000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>115000000.0</v>
+        <v>787000000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>-13000000.0</v>
